--- a/data/validTitles.xlsx
+++ b/data/validTitles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,14 +466,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FTSEMIB.MI</t>
+          <t>AGEN.VI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.649278119207917</v>
+        <v>0.8350136489228631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.833376019772285</v>
+        <v>0.6802557402627221</v>
       </c>
     </row>
     <row r="3">
@@ -487,14 +487,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AGEN.VI</t>
+          <t>AZM.MI</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7630835450834851</v>
+        <v>0.7935673897696931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.659459523998653</v>
+        <v>0.417957313801799</v>
       </c>
     </row>
     <row r="4">
@@ -508,14 +508,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AZM.MI</t>
+          <t>FTSEMIB.MI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.624137238982676</v>
+        <v>0.8768830784389851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.396787909251427</v>
+        <v>0.8400200572478901</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A2A.MI</t>
+          <t>AMP.MI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BMED.MI</t>
+          <t>AZM.MI</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6128522607010031</v>
+        <v>0.666661334699811</v>
       </c>
       <c r="E5" t="n">
-        <v>0.400074402675908</v>
+        <v>0.366559748659947</v>
       </c>
     </row>
     <row r="6">
@@ -550,14 +550,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AZM.MI</t>
+          <t>ENEL.MI</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.679230974070528</v>
+        <v>0.611272771561658</v>
       </c>
       <c r="E6" t="n">
-        <v>0.368824537662298</v>
+        <v>0.530633354721715</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AMP.MI</t>
+          <t>AGEN.VI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BMED.MI</t>
+          <t>A2A.MI</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.600445402193855</v>
+        <v>0.8350136489228631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.366266839605389</v>
+        <v>0.480292328000078</v>
       </c>
     </row>
     <row r="8">
@@ -592,14 +592,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A2A.MI</t>
+          <t>AZM.MI</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7630835450834851</v>
+        <v>0.8823640944827571</v>
       </c>
       <c r="E8" t="n">
-        <v>0.47800313737891</v>
+        <v>0.5259947061200181</v>
       </c>
     </row>
     <row r="9">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8875266998066971</v>
+        <v>0.9593024332208681</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8845356041350501</v>
+        <v>0.8892408131814451</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +629,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AGEN.VI</t>
+          <t>AZM.MI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AZM.MI</t>
+          <t>A2A.MI</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7752586224927721</v>
+        <v>0.7935673897696931</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5208197492597361</v>
+        <v>0.6049979858549051</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AGEN.VI</t>
+          <t>AZM.MI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BMED.MI</t>
+          <t>AMP.MI</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8152605440393441</v>
+        <v>0.666661334699811</v>
       </c>
       <c r="E11" t="n">
-        <v>0.558643696810978</v>
+        <v>0.389803957780229</v>
       </c>
     </row>
     <row r="12">
@@ -676,14 +676,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A2A.MI</t>
+          <t>AGEN.VI</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.624137238982676</v>
+        <v>0.8823640944827571</v>
       </c>
       <c r="E12" t="n">
-        <v>0.587498408515791</v>
+        <v>1.07837531641213</v>
       </c>
     </row>
     <row r="13">
@@ -697,14 +697,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AMP.MI</t>
+          <t>FTSEMIB.MI</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.679230974070528</v>
+        <v>0.9324828978832871</v>
       </c>
       <c r="E13" t="n">
-        <v>0.380397343307382</v>
+        <v>1.146589295016535</v>
       </c>
     </row>
     <row r="14">
@@ -713,124 +713,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AZM.MI</t>
+          <t>ENEL.MI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AGEN.VI</t>
+          <t>AMP.MI</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.7752586224927721</v>
+        <v>0.611272771561658</v>
       </c>
       <c r="E14" t="n">
-        <v>1.063881130766552</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>AZM.MI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BMED.MI</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.932200694331455</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.837695683169517</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BMED.MI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A2A.MI</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6128522607010031</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5143378428405131</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BMED.MI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>AMP.MI</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.600445402193855</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.328000660858736</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BMED.MI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>AGEN.VI</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8152605440393441</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9908319773277441</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BMED.MI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>AZM.MI</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.932200694331455</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.727353824247678</v>
+        <v>0.331780252960951</v>
       </c>
     </row>
   </sheetData>
